--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/10/seed4/result_data_RandomForest.xlsx
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.81</v>
+        <v>4.857600000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.97770000000001</v>
+        <v>-21.9738</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.468699999999996</v>
+        <v>5.641799999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.7632</v>
+        <v>16.75950000000001</v>
       </c>
     </row>
     <row r="14">
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.475999999999999</v>
+        <v>-8.285499999999999</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.18650000000001</v>
+        <v>16.09790000000001</v>
       </c>
     </row>
     <row r="17">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.25760000000001</v>
+        <v>-22.20560000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.3181</v>
+        <v>-19.13219999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.07389999999999</v>
+        <v>16.03229999999999</v>
       </c>
     </row>
     <row r="21">
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.7225</v>
+        <v>16.61950000000001</v>
       </c>
     </row>
     <row r="25">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.105900000000005</v>
+        <v>4.034700000000004</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.59839999999997</v>
+        <v>-21.47269999999996</v>
       </c>
       <c r="B27" t="n">
-        <v>4.954800000000006</v>
+        <v>4.882900000000004</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.137099999999997</v>
+        <v>5.098499999999999</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.234600000000007</v>
+        <v>9.105900000000004</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,13 +1077,13 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.920600000000006</v>
+        <v>4.484000000000002</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.815099999999997</v>
+        <v>-8.937800000000005</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>15.9722</v>
+        <v>16.0167</v>
       </c>
     </row>
     <row r="40">
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.2708</v>
+        <v>-7.1649</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.51499999999999</v>
+        <v>17.5082</v>
       </c>
     </row>
     <row r="49">
@@ -1298,13 +1298,13 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.9173</v>
+        <v>5.885699999999998</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.3437</v>
+        <v>-7.223799999999994</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.15060000000001</v>
+        <v>17.089</v>
       </c>
     </row>
     <row r="53">
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.356299999999997</v>
+        <v>5.112399999999997</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.43770000000001</v>
+        <v>16.30280000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.504099999999996</v>
+        <v>-8.599600000000004</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.672600000000005</v>
+        <v>-7.832299999999999</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.6735</v>
+        <v>-21.75959999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>5.604299999999994</v>
+        <v>5.654399999999996</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,13 +1621,13 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>5.9909</v>
+        <v>5.5921</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.935</v>
+        <v>-6.913699999999999</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.60939999999998</v>
+        <v>-19.27809999999998</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.98960000000001</v>
+        <v>-22.02830000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.240999999999999</v>
+        <v>5.649</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.8285</v>
+        <v>16.77649999999999</v>
       </c>
     </row>
     <row r="85">
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.097299999999999</v>
+        <v>-8.018899999999999</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.2948</v>
+        <v>16.45620000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.82570000000001</v>
+        <v>16.79310000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.909200000000009</v>
+        <v>8.647100000000007</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
